--- a/官方号数据记录-小红书.xlsx
+++ b/官方号数据记录-小红书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="官方号数据记录-得物" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>KAPPA背靠背</t>
   </si>
   <si>
-    <t>https://m.poizon.com/rn-activity/community-share?trendId=436325553</t>
+    <t xml:space="preserve">http://xhslink.com/o/3cDrGjl4y7k </t>
   </si>
   <si>
     <t>图文</t>
@@ -217,18 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -671,28 +671,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,9 +816,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1205,10 +1206,10 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
@@ -1280,7 +1281,7 @@
       <c r="C2" s="1">
         <v>46015</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
@@ -1330,7 +1331,7 @@
       <c r="C3" s="1">
         <v>46015</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
@@ -1530,7 +1531,7 @@
       <c r="C7" s="1">
         <v>46014</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
@@ -2071,6 +2072,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://m.poizon.com/rn-activity/community-share?trendId=436294988"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://m.poizon.com/rn-activity/community-share?trendId=436081439"/>
+    <hyperlink ref="D2" r:id="rId3" display="http://xhslink.com/o/3cDrGjl4y7k "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
